--- a/medicamentos.xlsx
+++ b/medicamentos.xlsx
@@ -1,32 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ola\Desktop\Nova pasta\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:41000001_{7053B109-8220-DC4B-87D6-A67B7AF0DDEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="universal" sheetId="1" r:id="rId1"/>
     <sheet name="angola" sheetId="2" r:id="rId2"/>
     <sheet name="brazil" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
   <si>
     <t>nome</t>
   </si>
@@ -80,12 +92,39 @@
   </si>
   <si>
     <t>peso</t>
+  </si>
+  <si>
+    <t>teste</t>
+  </si>
+  <si>
+    <t>pediatrica</t>
+  </si>
+  <si>
+    <t>sim</t>
+  </si>
+  <si>
+    <t>mg/kg</t>
+  </si>
+  <si>
+    <t>12, 8</t>
+  </si>
+  <si>
+    <t>peso, idade, dosagem, dose, intervalo, via</t>
+  </si>
+  <si>
+    <t>adulta</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>idade, peso, dosagem, dose</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -462,32 +501,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="6" width="19.28515625" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" customWidth="1"/>
-    <col min="9" max="9" width="23.7109375" customWidth="1"/>
-    <col min="10" max="10" width="25" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1"/>
-    <col min="12" max="12" width="20.85546875" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" customWidth="1"/>
-    <col min="15" max="15" width="21" customWidth="1"/>
+    <col min="1" max="1" width="26.23046875" customWidth="1"/>
+    <col min="2" max="2" width="10.76171875" customWidth="1"/>
+    <col min="3" max="3" width="8.203125" customWidth="1"/>
+    <col min="4" max="4" width="19.90625" customWidth="1"/>
+    <col min="5" max="6" width="19.234375" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" customWidth="1"/>
+    <col min="8" max="8" width="23.5390625" customWidth="1"/>
+    <col min="9" max="9" width="23.67578125" customWidth="1"/>
+    <col min="10" max="10" width="25.01953125" customWidth="1"/>
+    <col min="11" max="11" width="13.1796875" customWidth="1"/>
+    <col min="12" max="12" width="20.84765625" customWidth="1"/>
+    <col min="13" max="13" width="13.31640625" customWidth="1"/>
+    <col min="14" max="14" width="37.125" customWidth="1"/>
+    <col min="15" max="15" width="20.984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -534,7 +573,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -549,6 +588,82 @@
       </c>
       <c r="O2" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>5110</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>50</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <v>5475</v>
+      </c>
+      <c r="E4">
+        <v>54750</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>6</v>
+      </c>
+      <c r="J4">
+        <v>6</v>
+      </c>
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4">
+        <v>6</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -558,16 +673,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="59.25" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -617,16 +732,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="59.25" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>

--- a/medicamentos.xlsx
+++ b/medicamentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ola\Desktop\Nova pasta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:41000001_{7053B109-8220-DC4B-87D6-A67B7AF0DDEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:41000001_{8144096D-8E0F-2343-A92C-41272DAA4209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
   <si>
     <t>nome</t>
   </si>
@@ -85,9 +85,6 @@
     <t>dipirona</t>
   </si>
   <si>
-    <t>(p*0.04)+` ml`</t>
-  </si>
-  <si>
     <t>campos</t>
   </si>
   <si>
@@ -119,6 +116,15 @@
   </si>
   <si>
     <t>idade, peso, dosagem, dose</t>
+  </si>
+  <si>
+    <t>`${p*0.04} ml`</t>
+  </si>
+  <si>
+    <t>`${p*2} a funcionar x2 `</t>
+  </si>
+  <si>
+    <t>`a funcionar`</t>
   </si>
 </sst>
 </file>
@@ -504,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -567,7 +573,7 @@
         <v>10</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>13</v>
@@ -584,21 +590,21 @@
         <v>300</v>
       </c>
       <c r="N2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -622,24 +628,27 @@
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L3">
         <v>3</v>
       </c>
       <c r="M3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" t="s">
         <v>22</v>
       </c>
-      <c r="N3" t="s">
-        <v>23</v>
+      <c r="O3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4">
         <v>5475</v>
@@ -657,13 +666,16 @@
         <v>6</v>
       </c>
       <c r="K4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L4">
         <v>6</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="O4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
